--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_3786.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_3786.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3786</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Umeshkumar Tilak Yadav</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Fast</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -492,7 +557,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>28/05/2010</t>
@@ -500,7 +564,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3111</t>
+          <t>3111</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -540,7 +604,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>30/05/2010</t>
@@ -548,7 +611,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3113</t>
+          <t>3113</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -600,7 +663,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3116</t>
+          <t>3116</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -640,7 +703,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>14/10/2011</t>
@@ -648,7 +710,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3335</t>
+          <t>3335</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -688,7 +750,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>17/10/2011</t>
@@ -696,7 +757,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3337</t>
+          <t>3337</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -736,7 +797,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>20/10/2011</t>
@@ -744,7 +804,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3341</t>
+          <t>3341</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -796,7 +856,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3353</t>
+          <t>3353</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -836,7 +896,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>02/12/2011</t>
@@ -844,7 +903,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3355</t>
+          <t>3355</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -896,7 +955,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3357</t>
+          <t>3357</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -936,7 +995,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>12/02/2012</t>
@@ -944,7 +1002,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3373</t>
+          <t>3373</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -996,7 +1054,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3375</t>
+          <t>3375</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1048,7 +1106,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3380</t>
+          <t>3380</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1100,7 +1158,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3382</t>
+          <t>3382</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1152,7 +1210,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3386</t>
+          <t>3386</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1192,7 +1250,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>28/02/2012</t>
@@ -1200,7 +1257,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3387</t>
+          <t>3387</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1240,7 +1297,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>21/07/2012</t>
@@ -1248,7 +1304,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3431</t>
+          <t>3431</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1300,7 +1356,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3432</t>
+          <t>3432</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1340,7 +1396,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>06/06/2013</t>
@@ -1348,7 +1403,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3505</t>
+          <t>3505</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1388,7 +1443,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>11/06/2013</t>
@@ -1396,7 +1450,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3510</t>
+          <t>3510</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1436,7 +1490,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>15/06/2013</t>
@@ -1444,7 +1497,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3514</t>
+          <t>3514</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1484,7 +1537,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>20/06/2013</t>
@@ -1492,7 +1544,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3518</t>
+          <t>3518</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1532,7 +1584,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>23/06/2013</t>
@@ -1540,7 +1591,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3519</t>
+          <t>3519</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1580,7 +1631,6 @@
           <t>23</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>30/06/2013</t>
@@ -1588,7 +1638,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3521</t>
+          <t>3521</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1640,7 +1690,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3524</t>
+          <t>3524</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1680,7 +1730,6 @@
           <t>25</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>05/07/2013</t>
@@ -1688,7 +1737,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3525</t>
+          <t>3525</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1728,7 +1777,6 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>09/07/2013</t>
@@ -1736,7 +1784,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3529</t>
+          <t>3529</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1788,7 +1836,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3587</t>
+          <t>3587</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1828,7 +1876,6 @@
           <t>28</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>11/12/2013</t>
@@ -1836,7 +1883,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3588</t>
+          <t>3588</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1876,7 +1923,6 @@
           <t>29</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>15/06/2014</t>
@@ -1884,7 +1930,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3643</t>
+          <t>3643</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1936,7 +1982,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3644</t>
+          <t>3644</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1988,7 +2034,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3645</t>
+          <t>3645</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2040,7 +2086,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3672</t>
+          <t>3672</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2080,7 +2126,6 @@
           <t>33</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>11/10/2014</t>
@@ -2088,7 +2133,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3680</t>
+          <t>3680</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2128,7 +2173,6 @@
           <t>34</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>17/10/2014</t>
@@ -2136,7 +2180,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3683</t>
+          <t>3683</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2176,7 +2220,6 @@
           <t>35</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>02/11/2014</t>
@@ -2184,7 +2227,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3688</t>
+          <t>3688</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2224,7 +2267,6 @@
           <t>36</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
           <t>06/11/2014</t>
@@ -2232,7 +2274,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3689</t>
+          <t>3689</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2272,7 +2314,6 @@
           <t>37</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
           <t>09/11/2014</t>
@@ -2280,7 +2321,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3692</t>
+          <t>3692</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2320,7 +2361,6 @@
           <t>38</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>13/11/2014</t>
@@ -2328,7 +2368,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3693</t>
+          <t>3693</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2368,7 +2408,6 @@
           <t>39</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
           <t>18/01/2015</t>
@@ -2376,7 +2415,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3731</t>
+          <t>3731</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2428,7 +2467,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3735</t>
+          <t>3735</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2468,7 +2507,6 @@
           <t>41</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
           <t>15/02/2015</t>
@@ -2476,7 +2514,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3751</t>
+          <t>3751</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2516,7 +2554,6 @@
           <t>42</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>22/02/2015</t>
@@ -2524,7 +2561,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3760</t>
+          <t>3760</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2564,7 +2601,6 @@
           <t>43</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
           <t>28/02/2015</t>
@@ -2572,7 +2608,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3768</t>
+          <t>3768</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2612,7 +2648,6 @@
           <t>44</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>06/03/2015</t>
@@ -2620,7 +2655,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3775</t>
+          <t>3775</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2660,7 +2695,6 @@
           <t>45</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>10/03/2015</t>
@@ -2668,7 +2702,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3781</t>
+          <t>3781</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2708,7 +2742,6 @@
           <t>46</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
           <t>14/03/2015</t>
@@ -2716,7 +2749,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3786</t>
+          <t>3786</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2756,7 +2789,6 @@
           <t>47</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>19/03/2015</t>
@@ -2764,7 +2796,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3791</t>
+          <t>3791</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2816,7 +2848,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3795</t>
+          <t>3795</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2868,7 +2900,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3808</t>
+          <t>3808</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2908,7 +2940,6 @@
           <t>50</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>24/06/2015</t>
@@ -2916,7 +2947,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3811</t>
+          <t>3811</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2956,7 +2987,6 @@
           <t>51</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr">
         <is>
           <t>11/10/2015</t>
@@ -2964,7 +2994,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3841</t>
+          <t>3841</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3016,7 +3046,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3844</t>
+          <t>3844</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3056,7 +3086,6 @@
           <t>53</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
           <t>12/01/2016</t>
@@ -3064,7 +3093,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3874</t>
+          <t>3874</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3116,7 +3145,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3875</t>
+          <t>3875</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3156,7 +3185,6 @@
           <t>55</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
           <t>17/01/2016</t>
@@ -3164,7 +3192,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3876</t>
+          <t>3876</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3216,7 +3244,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3877</t>
+          <t>3877</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3256,7 +3284,6 @@
           <t>57</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr">
         <is>
           <t>23/01/2016</t>
@@ -3264,7 +3291,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3878</t>
+          <t>3878</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3304,7 +3331,6 @@
           <t>58</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
           <t>16/10/2016</t>
@@ -3312,7 +3338,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3951</t>
+          <t>3951</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3364,7 +3390,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3952</t>
+          <t>3952</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3404,7 +3430,6 @@
           <t>60</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
           <t>23/10/2016</t>
@@ -3412,7 +3437,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3953</t>
+          <t>3953</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3464,7 +3489,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3954</t>
+          <t>3954</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3504,7 +3529,6 @@
           <t>62</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
           <t>29/10/2016</t>
@@ -3512,7 +3536,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3955</t>
+          <t>3955</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3552,7 +3576,6 @@
           <t>63</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
         <is>
           <t>15/01/2017</t>
@@ -3560,7 +3583,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3974</t>
+          <t>3974</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3600,7 +3623,6 @@
           <t>64</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
           <t>04/06/2017</t>
@@ -3608,7 +3630,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4034</t>
+          <t>4034</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3648,7 +3670,6 @@
           <t>65</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr">
         <is>
           <t>08/06/2017</t>
@@ -3656,7 +3677,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4038</t>
+          <t>4038</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3696,7 +3717,6 @@
           <t>66</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr">
         <is>
           <t>23/06/2017</t>
@@ -3704,7 +3724,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4051</t>
+          <t>4051</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3744,7 +3764,6 @@
           <t>67</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
           <t>25/06/2017</t>
@@ -3752,7 +3771,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4052</t>
+          <t>4052</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3792,7 +3811,6 @@
           <t>68</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr"/>
       <c r="C69" t="inlineStr">
         <is>
           <t>30/06/2017</t>
@@ -3800,7 +3818,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4053</t>
+          <t>4053</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3852,7 +3870,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4056</t>
+          <t>4056</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3892,7 +3910,6 @@
           <t>70</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
           <t>06/07/2017</t>
@@ -3900,7 +3917,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4057</t>
+          <t>4057</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3952,7 +3969,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4074</t>
+          <t>4074</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3992,7 +4009,6 @@
           <t>72</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr">
         <is>
           <t>12/07/2018</t>
@@ -4000,7 +4016,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4171</t>
+          <t>4171</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4052,7 +4068,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4173</t>
+          <t>4173</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4092,7 +4108,6 @@
           <t>74</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
           <t>21/10/2018</t>
@@ -4100,7 +4115,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4213</t>
+          <t>4213</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4140,7 +4155,6 @@
           <t>75</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr">
         <is>
           <t>24/10/2018</t>
@@ -4148,7 +4162,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4216</t>
+          <t>4216</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4187,7 +4201,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4209,7 +4223,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -4246,7 +4260,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3111</t>
+          <t>3111</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -4283,7 +4297,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3113</t>
+          <t>3113</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -4320,7 +4334,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3116</t>
+          <t>3116</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -4357,7 +4371,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3335</t>
+          <t>3335</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -4394,7 +4408,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3337</t>
+          <t>3337</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -4431,7 +4445,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3341</t>
+          <t>3341</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -4468,7 +4482,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3353</t>
+          <t>3353</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -4505,7 +4519,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3355</t>
+          <t>3355</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -4542,7 +4556,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3357</t>
+          <t>3357</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -4579,7 +4593,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3373</t>
+          <t>3373</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -4616,7 +4630,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3375</t>
+          <t>3375</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -4653,7 +4667,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3380</t>
+          <t>3380</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -4690,7 +4704,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3382</t>
+          <t>3382</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -4727,7 +4741,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3386</t>
+          <t>3386</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -4764,7 +4778,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3387</t>
+          <t>3387</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -4801,7 +4815,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3431</t>
+          <t>3431</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -4838,7 +4852,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3432</t>
+          <t>3432</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -4875,7 +4889,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3505</t>
+          <t>3505</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -4912,7 +4926,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3510</t>
+          <t>3510</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4949,7 +4963,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3514</t>
+          <t>3514</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -4986,7 +5000,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3518</t>
+          <t>3518</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -5023,7 +5037,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3519</t>
+          <t>3519</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -5060,7 +5074,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3521</t>
+          <t>3521</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -5097,7 +5111,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3524</t>
+          <t>3524</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -5134,7 +5148,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3525</t>
+          <t>3525</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -5171,7 +5185,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3529</t>
+          <t>3529</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -5208,7 +5222,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3587</t>
+          <t>3587</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -5245,7 +5259,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3588</t>
+          <t>3588</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -5282,7 +5296,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3643</t>
+          <t>3643</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -5319,7 +5333,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3644</t>
+          <t>3644</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -5356,7 +5370,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3672</t>
+          <t>3672</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -5393,7 +5407,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3680</t>
+          <t>3680</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -5430,7 +5444,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3683</t>
+          <t>3683</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -5467,7 +5481,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3688</t>
+          <t>3688</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -5504,7 +5518,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3689</t>
+          <t>3689</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -5541,7 +5555,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3692</t>
+          <t>3692</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -5578,7 +5592,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3693</t>
+          <t>3693</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -5615,7 +5629,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3731</t>
+          <t>3731</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5652,7 +5666,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3735</t>
+          <t>3735</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5689,7 +5703,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3751</t>
+          <t>3751</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5726,7 +5740,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3760</t>
+          <t>3760</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -5763,7 +5777,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3768</t>
+          <t>3768</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5800,7 +5814,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3775</t>
+          <t>3775</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5837,7 +5851,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3781</t>
+          <t>3781</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -5874,7 +5888,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3786</t>
+          <t>3786</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -5911,7 +5925,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3791</t>
+          <t>3791</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -5948,7 +5962,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3795</t>
+          <t>3795</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -5985,7 +5999,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3808</t>
+          <t>3808</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -6022,7 +6036,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3811</t>
+          <t>3811</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6059,7 +6073,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3841</t>
+          <t>3841</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -6096,7 +6110,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3844</t>
+          <t>3844</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -6133,7 +6147,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3874</t>
+          <t>3874</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -6170,7 +6184,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3875</t>
+          <t>3875</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -6207,7 +6221,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3876</t>
+          <t>3876</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -6244,7 +6258,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3877</t>
+          <t>3877</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -6281,7 +6295,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3878</t>
+          <t>3878</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -6318,7 +6332,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3951</t>
+          <t>3951</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -6355,7 +6369,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3952</t>
+          <t>3952</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -6392,7 +6406,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3953</t>
+          <t>3953</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -6429,7 +6443,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3954</t>
+          <t>3954</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -6466,7 +6480,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3955</t>
+          <t>3955</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -6503,7 +6517,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3974</t>
+          <t>3974</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -6540,7 +6554,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4034</t>
+          <t>4034</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -6577,7 +6591,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4038</t>
+          <t>4038</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -6614,7 +6628,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4052</t>
+          <t>4052</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -6651,7 +6665,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4053</t>
+          <t>4053</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -6688,7 +6702,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4056</t>
+          <t>4056</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -6725,7 +6739,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4057</t>
+          <t>4057</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -6762,7 +6776,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4074</t>
+          <t>4074</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -6799,7 +6813,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4171</t>
+          <t>4171</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -6836,7 +6850,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4173</t>
+          <t>4173</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -6873,7 +6887,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4213</t>
+          <t>4213</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -6910,7 +6924,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4216</t>
+          <t>4216</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -6938,6 +6952,419 @@
           <t>1/78</t>
         </is>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3877</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3878</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3951</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3952</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>7.63%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3953</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3954</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3955</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3974</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4034</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4038</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4051</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4052</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4053</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4056</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4057</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4074</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>8</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4171</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4173</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4213</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4216</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_3786.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_3786.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7010,10 +7011,6 @@
           <t>3877</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7026,183 +7023,480 @@
           <t>3878</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3951</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3952</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>7.63%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3953</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3954</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3955</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3974</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4034</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4038</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4051</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4052</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4053</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4056</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4057</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4074</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>8</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4171</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4173</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4213</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4216</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3876</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3877</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3951</t>
+          <t>3878</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3952</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>10</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>7.63%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>3951</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3953</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>10</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>3952</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3954</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>10</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>3953</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3955</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>10</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>3954</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3974</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>10</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>3955</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4034</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>3974</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4038</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>11</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>4034</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4051</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
+          <t>4038</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7210,25 +7504,12 @@
           <t>4052</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>10</v>
-      </c>
-      <c r="C13" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -7236,17 +7517,8 @@
           <t>4053</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>10</v>
-      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -7254,13 +7526,14 @@
           <t>4056</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -7270,15 +7543,14 @@
           <t>4057</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>10</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -7288,25 +7560,8 @@
           <t>4074</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>8</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -7314,13 +7569,14 @@
           <t>4171</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -7330,15 +7586,14 @@
           <t>4173</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>10</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -7350,9 +7605,6 @@
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7360,11 +7612,16 @@
           <t>4216</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_3786.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_3786.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1889,7 +1888,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -7011,6 +7010,10 @@
           <t>3877</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7023,6 +7026,10 @@
           <t>3878</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7035,6 +7042,10 @@
           <t>3951</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7080,6 +7091,9 @@
       <c r="B6" t="n">
         <v>10</v>
       </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7095,6 +7109,9 @@
       <c r="B7" t="n">
         <v>10</v>
       </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7110,6 +7127,9 @@
       <c r="B8" t="n">
         <v>10</v>
       </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7125,6 +7145,9 @@
       <c r="B9" t="n">
         <v>10</v>
       </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7137,6 +7160,10 @@
           <t>4034</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7152,6 +7179,9 @@
       <c r="B11" t="n">
         <v>11</v>
       </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7164,6 +7194,10 @@
           <t>4051</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7189,6 +7223,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7204,6 +7239,9 @@
       <c r="B14" t="n">
         <v>10</v>
       </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7216,6 +7254,10 @@
           <t>4056</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7231,6 +7273,9 @@
       <c r="B16" t="n">
         <v>10</v>
       </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7256,6 +7301,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7268,6 +7314,10 @@
           <t>4171</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7283,6 +7333,9 @@
       <c r="B19" t="n">
         <v>10</v>
       </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7295,6 +7348,11 @@
           <t>4213</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7302,326 +7360,11 @@
           <t>4216</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3876</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3877</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3878</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3951</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3952</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>3953</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>3954</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>3955</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>3974</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4034</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4038</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4052</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4053</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4056</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4057</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4074</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4171</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4173</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4213</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4216</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_3786.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_3786.xlsx
@@ -6964,7 +6964,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7007,7 +7007,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3877</t>
+          <t>3111</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -7023,13 +7023,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3878</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+          <t>3113</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1.55%</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7039,10 +7053,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3951</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>3116</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>11</v>
+      </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
@@ -7055,27 +7071,15 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3952</t>
+          <t>3335</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>10</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>7.63%</t>
-        </is>
-      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7085,12 +7089,10 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3953</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>10</v>
-      </c>
+          <t>3337</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -7103,12 +7105,10 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3954</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>10</v>
-      </c>
+          <t>3341</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
@@ -7121,12 +7121,10 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3955</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>10</v>
-      </c>
+          <t>3353</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
@@ -7139,7 +7137,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3974</t>
+          <t>3355</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -7157,12 +7155,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4034</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
+          <t>3357</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
@@ -7173,7 +7181,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4038</t>
+          <t>3373</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -7191,7 +7199,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4051</t>
+          <t>3375</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -7207,22 +7215,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4052</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>10</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>3380</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
@@ -7233,11 +7231,11 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4053</t>
+          <t>3382</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -7251,10 +7249,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4056</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
+          <t>3386</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>11</v>
+      </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
@@ -7267,11 +7267,11 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4057</t>
+          <t>3387</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -7285,11 +7285,11 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4074</t>
+          <t>3431</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -7301,7 +7301,11 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0.68%</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr">
         <is>
           <t>NO</t>
@@ -7311,7 +7315,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4171</t>
+          <t>3432</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -7327,7 +7331,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4173</t>
+          <t>3505</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -7345,26 +7349,948 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4213</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
+          <t>3510</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>11</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>16.19%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4216</t>
+          <t>3514</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3518</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>11</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>3519</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>11</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>3521</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>9</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>3524</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>3525</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>3529</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>10</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>3587</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>3588</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>11</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>3643</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>10</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>3644</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>10</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>3645</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>10</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>3672</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>3680</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>11</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>3683</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>11</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>3688</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>10</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>1.62%</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>3689</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>9</v>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>3692</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>3693</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>10</v>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>3731</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>3735</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>3751</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>3760</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>10</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>7.63%</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>3768</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>10</v>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>3775</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>10</v>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>3781</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>10</v>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>3786</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>10</v>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>3791</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>3795</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>11</v>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>3808</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>3811</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>10</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>3841</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>10</v>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>3844</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>3874</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>10</v>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>3875</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>8</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>3876</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>3877</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>10</v>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>3878</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>3951</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>3952</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>3953</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>3954</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>3955</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>3974</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>4034</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>4038</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>4051</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>4052</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>4053</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>4056</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>4057</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>4074</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>4171</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr"/>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>4173</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>4213</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>4216</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
